--- a/InscripciónEncuestasSemana2/Semana 2 (Respuestas).xlsx
+++ b/InscripciónEncuestasSemana2/Semana 2 (Respuestas).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>vgonzalez@dsmorus.cl</t>
+  </si>
+  <si>
+    <t>lllano@dsmorus.cl</t>
   </si>
 </sst>
 </file>
@@ -1259,6 +1262,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>44473.86539773148</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
